--- a/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
+++ b/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{BC26BABE-0DD9-49F0-8698-434367B7D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39AEC86B-04D2-4BDF-8A87-E82E887F4B85}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{BC26BABE-0DD9-49F0-8698-434367B7D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F47A23C5-0A0A-4995-AB1C-8F400BE52DA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2516,7 +2516,7 @@
   <dimension ref="A1:AX2187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2709,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2805,7 +2805,7 @@
         <v>34</v>
       </c>
       <c r="AQ3" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12" t="s">
@@ -2951,7 +2951,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -3033,7 +3033,7 @@
         <v>66</v>
       </c>
       <c r="AQ5" s="19">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AR5" s="8" t="s">
         <v>67</v>
@@ -3559,7 +3559,7 @@
         <v>125</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>

--- a/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
+++ b/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\OneDrive\Documentos\GitHub\HydroPol2D\Input_Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0EEDDE73-A2D8-43E7-9C57-6AC969B0D73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B9536C-79F1-466D-8388-CB8E0F58C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2609,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX2187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E38" sqref="D38:E38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
+++ b/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{BA91C371-C544-4483-926D-46A2B777227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6444BC-D129-4087-9693-17F5491772A9}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{BA91C371-C544-4483-926D-46A2B777227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7314F918-E92A-4097-A169-5A92EB132B40}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Data" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,10 @@
     <author>tc={B5D3DFCB-DF26-4C36-8C98-F3F8397086F7}</author>
     <author>tc={5CCF2516-3AD5-4E09-8585-CAADC1DD448D}</author>
     <author>tc={72CBD14A-3C1C-4425-949C-97F1A5DEC966}</author>
+    <author>tc={41D069B3-8DA9-4891-A9DB-07E4F11789DA}</author>
     <author>tc={BC7F5F5A-5186-46CB-A762-947454B6F219}</author>
     <author>tc={66066AC4-3D0E-4322-B156-144158A7DB5B}</author>
+    <author>tc={C86B3499-039B-4596-A31B-4AC6E67CF111}</author>
   </authors>
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0" xr:uid="{087E4ACA-ECFD-4927-A13C-E9D66149C009}">
@@ -1023,7 +1025,17 @@
 </t>
       </text>
     </comment>
-    <comment ref="F17" authorId="31" shapeId="0" xr:uid="{BC7F5F5A-5186-46CB-A762-947454B6F219}">
+    <comment ref="C14" authorId="31" shapeId="0" xr:uid="{41D069B3-8DA9-4891-A9DB-07E4F11789DA}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Marcus Nóbrega:
+1 we are entering stage hydrographs. There is no current way to enter both stage hydrograph and inflow hydrograph
+</t>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="32" shapeId="0" xr:uid="{BC7F5F5A-5186-46CB-A762-947454B6F219}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1035,7 +1047,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="F18" authorId="32" shapeId="0" xr:uid="{66066AC4-3D0E-4322-B156-144158A7DB5B}">
+    <comment ref="F18" authorId="33" shapeId="0" xr:uid="{66066AC4-3D0E-4322-B156-144158A7DB5B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1043,12 +1055,23 @@
     If 1, we assume that all perimeter of the domain has a normal flow boundary condition following the specified normal slope.</t>
       </text>
     </comment>
+    <comment ref="F19" authorId="34" shapeId="0" xr:uid="{C86B3499-039B-4596-A31B-4AC6E67CF111}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only valid for flag_inertial.
+1 == original bates formulation
+2 == s-upwind scheme
+3 == s-centered scheme</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="168">
   <si>
     <t>HydroPol2D Model - Developer: Marcus Nobrega, Ph.D.</t>
   </si>
@@ -1522,15 +1545,6 @@
     <t>C:\Users\marcu\OneDrive - University of Arizona\Desktop\Desktop_Folder\HydroPol2D_Repository\Topotoolbox_Files</t>
   </si>
   <si>
-    <t>C:\Users\marcu\OneDrive\Documentos\GitHub\HydroPol2D\Raster_Input_Files\LULC_HP2D.tif</t>
-  </si>
-  <si>
-    <t>C:\Users\marcu\OneDrive\Documentos\GitHub\HydroPol2D\Raster_Input_Files\FAO_HP2D.tif</t>
-  </si>
-  <si>
-    <t>C:\Users\marcu\OneDrive\Documentos\GitHub\HydroPol2D\Raster_Input_Files\DEM_HP2D.tif</t>
-  </si>
-  <si>
     <t>Hydrologic-Hydrodynamic-WQ Flags</t>
   </si>
   <si>
@@ -1573,6 +1587,21 @@
   </si>
   <si>
     <t>Point 4</t>
+  </si>
+  <si>
+    <t>flag_stage_hydrograph</t>
+  </si>
+  <si>
+    <t>G:\Shared drives\WadiLab_General\Study_cases\Marcus\Analytical_Solution\DEM.tif</t>
+  </si>
+  <si>
+    <t>G:\Shared drives\WadiLab_General\Study_cases\Marcus\Analytical_Solution\LULC.tif</t>
+  </si>
+  <si>
+    <t>G:\Shared drives\WadiLab_General\Study_cases\Marcus\Analytical_Solution\SOIL.tif</t>
+  </si>
+  <si>
+    <t>flag_numerical_scheme</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2046,6 +2075,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2707,6 +2737,11 @@
 1 we are using the build-up and wash-off with rating curves and changing it according to Bmin, Bmax values. Otherwise, we are modeling with traditional exponential wash-off model in terms of Bt
 </text>
   </threadedComment>
+  <threadedComment ref="C14" personId="{15AC34AC-81A8-86F1-E5A4-62B07B367BF1}" id="{41D069B3-8DA9-4891-A9DB-07E4F11789DA}">
+    <text xml:space="preserve">Marcus Nóbrega:
+1 we are entering stage hydrographs. There is no current way to enter both stage hydrograph and inflow hydrograph
+</text>
+  </threadedComment>
   <threadedComment ref="F17" personId="{29F6BD87-A112-1D1B-E901-35257C09E0FB}" id="{BC7F5F5A-5186-46CB-A762-947454B6F219}">
     <text xml:space="preserve">Marcus Gomes J Nior:
 1 we solve human instability model. 
@@ -2717,6 +2752,12 @@
   <threadedComment ref="F18" dT="2024-07-19T15:40:48.33" personId="{4CB6844C-6754-4A81-BFA5-4E4F0B6E8AD8}" id="{66066AC4-3D0E-4322-B156-144158A7DB5B}">
     <text>If 1, we assume that all perimeter of the domain has a normal flow boundary condition following the specified normal slope.</text>
   </threadedComment>
+  <threadedComment ref="F19" dT="2024-07-19T15:40:48.33" personId="{4CB6844C-6754-4A81-BFA5-4E4F0B6E8AD8}" id="{C86B3499-039B-4596-A31B-4AC6E67CF111}">
+    <text>Only valid for flag_inertial.
+1 == original bates formulation
+2 == s-upwind scheme
+3 == s-centered scheme</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2724,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2831,74 +2872,74 @@
       <c r="AU1" s="6"/>
     </row>
     <row r="2" spans="1:47" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="66"/>
+      <c r="AA2" s="67"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="66" t="s">
+      <c r="AC2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="66"/>
+      <c r="AD2" s="67"/>
       <c r="AE2" s="31"/>
       <c r="AF2" s="7"/>
-      <c r="AG2" s="66" t="s">
+      <c r="AG2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="66"/>
+      <c r="AM2" s="67"/>
       <c r="AN2" s="7"/>
-      <c r="AO2" s="66" t="s">
+      <c r="AO2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="66"/>
+      <c r="AP2" s="67"/>
       <c r="AQ2" s="62"/>
     </row>
     <row r="3" spans="1:47" ht="24.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2912,13 +2953,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E3" s="43">
-        <v>1</v>
+        <v>1100000</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>16</v>
@@ -2931,7 +2972,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="41">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>18</v>
@@ -3027,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E4" s="47">
         <v>2</v>
@@ -3046,7 +3087,7 @@
         <v>37</v>
       </c>
       <c r="K4" s="40">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>18</v>
@@ -3080,10 +3121,10 @@
       <c r="Y4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Z4" s="66" t="s">
+      <c r="Z4" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="66"/>
+      <c r="AA4" s="67"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="9" t="s">
         <v>44</v>
@@ -3103,7 +3144,7 @@
         <v>-2705627.9980341499</v>
       </c>
       <c r="AJ4" s="65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK4" s="10"/>
       <c r="AL4" s="9" t="s">
@@ -3184,7 +3225,7 @@
         <v>56</v>
       </c>
       <c r="AA5" s="50" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="9" t="s">
@@ -3207,7 +3248,7 @@
         <v>-2705168.6514626802</v>
       </c>
       <c r="AJ5" s="65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AK5" s="10"/>
       <c r="AL5" s="9" t="s">
@@ -3288,7 +3329,7 @@
         <v>71</v>
       </c>
       <c r="AA6" s="50" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="9" t="s">
@@ -3311,7 +3352,7 @@
         <v>-2704631.8247466199</v>
       </c>
       <c r="AJ6" s="65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="9" t="s">
@@ -3374,7 +3415,7 @@
         <v>81</v>
       </c>
       <c r="AA7" s="50" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="9" t="s">
@@ -3397,7 +3438,7 @@
         <v>-2703873.6261888901</v>
       </c>
       <c r="AJ7" s="65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9" t="s">
@@ -3452,7 +3493,7 @@
         <v>87</v>
       </c>
       <c r="AA8" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="9" t="s">
@@ -3524,7 +3565,7 @@
         <v>94</v>
       </c>
       <c r="AA9" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="9" t="s">
@@ -3590,7 +3631,7 @@
         <v>100</v>
       </c>
       <c r="AA10" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="9" t="s">
@@ -3735,7 +3776,7 @@
         <v>113</v>
       </c>
       <c r="B13" s="46">
-        <v>40546</v>
+        <v>40544.041666666664</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3788,7 +3829,7 @@
       </c>
       <c r="B14" s="18">
         <f>B13-B12</f>
-        <v>2</v>
+        <v>4.1666666664241347E-2</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -9167,9 +9208,9 @@
       <c r="AP135" s="59"/>
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A136" s="67"/>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
+      <c r="A136" s="68"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="68"/>
       <c r="D136" s="22"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
@@ -18114,8 +18155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553BA00A-7A89-4375-BB3D-26E7CA6FB175}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -18190,20 +18231,20 @@
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="69"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="27"/>
       <c r="K3" s="28" t="s">
         <v>145</v>
@@ -18230,7 +18271,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="9" t="s">
@@ -18258,7 +18299,7 @@
         <v>120</v>
       </c>
       <c r="O4" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="9" t="s">
@@ -18278,14 +18319,14 @@
         <v>116</v>
       </c>
       <c r="C5" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="9" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="9" t="s">
@@ -18326,7 +18367,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="9" t="s">
@@ -18486,7 +18527,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="9" t="s">
@@ -18509,7 +18550,7 @@
         <v>128</v>
       </c>
       <c r="R10" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
@@ -18522,7 +18563,7 @@
         <v>134</v>
       </c>
       <c r="C11" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="9" t="s">
@@ -18561,7 +18602,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -18580,12 +18621,12 @@
       <c r="U12" s="27"/>
       <c r="V12" s="29"/>
     </row>
-    <row r="13" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>0</v>
       </c>
       <c r="D13" s="9"/>
@@ -18612,10 +18653,14 @@
       <c r="U13" s="27"/>
       <c r="V13" s="29"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
       <c r="D14" s="27"/>
       <c r="E14" s="14" t="s">
         <v>137</v>
@@ -18724,15 +18769,15 @@
       <c r="U17" s="27"/>
       <c r="V17" s="29"/>
     </row>
-    <row r="18" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="32">
+        <v>156</v>
+      </c>
+      <c r="F18" s="66">
         <v>0</v>
       </c>
       <c r="G18" s="27"/>
@@ -18752,13 +18797,17 @@
       <c r="U18" s="27"/>
       <c r="V18" s="29"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -19737,7 +19786,6 @@
       <c r="V59" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AjqZjcQrMRAhfTK4HGIXyXk7PhPUmW4jve4jgni+dWI03cZQIEAVmCRoc/4DHcAqjmgbUPWycSPfDka5Vpwmdw==" saltValue="AA5xBn4oZKjAfLWlkewrYQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>

--- a/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
+++ b/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{BA91C371-C544-4483-926D-46A2B777227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7314F918-E92A-4097-A169-5A92EB132B40}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{BA91C371-C544-4483-926D-46A2B777227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D35234-2309-462F-AAC8-C2986FEEF43D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Data" sheetId="1" r:id="rId1"/>
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="167">
   <si>
     <t>HydroPol2D Model - Developer: Marcus Nobrega, Ph.D.</t>
   </si>
@@ -1592,16 +1592,13 @@
     <t>flag_stage_hydrograph</t>
   </si>
   <si>
-    <t>G:\Shared drives\WadiLab_General\Study_cases\Marcus\Analytical_Solution\DEM.tif</t>
+    <t>flag_numerical_scheme</t>
   </si>
   <si>
-    <t>G:\Shared drives\WadiLab_General\Study_cases\Marcus\Analytical_Solution\LULC.tif</t>
+    <t>C:\Users\marcu\OneDrive\Documentos\GitHub\HydroPol2D\Raster_Input_Files\MDT_4001x100.tif</t>
   </si>
   <si>
-    <t>G:\Shared drives\WadiLab_General\Study_cases\Marcus\Analytical_Solution\SOIL.tif</t>
-  </si>
-  <si>
-    <t>flag_numerical_scheme</t>
+    <t>C:\Users\marcu\OneDrive\Documentos\GitHub\HydroPol2D\Raster_Input_Files\LULC_4001x100.tif</t>
   </si>
 </sst>
 </file>
@@ -2765,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2187"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3007,7 +3004,7 @@
         <v>24</v>
       </c>
       <c r="X3" s="41">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>25</v>
@@ -3225,7 +3222,7 @@
         <v>56</v>
       </c>
       <c r="AA5" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="9" t="s">
@@ -3329,7 +3326,7 @@
         <v>71</v>
       </c>
       <c r="AA6" s="50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="9" t="s">
@@ -18155,8 +18152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553BA00A-7A89-4375-BB3D-26E7CA6FB175}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -18803,7 +18800,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F19" s="32">
         <v>1</v>

--- a/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
+++ b/Input_Data_Sheets/General_Data_HydroPol2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{BA91C371-C544-4483-926D-46A2B777227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D35234-2309-462F-AAC8-C2986FEEF43D}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{BA91C371-C544-4483-926D-46A2B777227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A90DCE-0A0F-4AD5-8118-1374BCD9EB35}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="165">
   <si>
     <t>HydroPol2D Model - Developer: Marcus Nobrega, Ph.D.</t>
   </si>
@@ -1577,18 +1577,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Point 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point 2 </t>
-  </si>
-  <si>
-    <t>Point 3</t>
-  </si>
-  <si>
-    <t>Point 4</t>
-  </si>
-  <si>
     <t>flag_stage_hydrograph</t>
   </si>
   <si>
@@ -1599,6 +1587,12 @@
   </si>
   <si>
     <t>C:\Users\marcu\OneDrive\Documentos\GitHub\HydroPol2D\Raster_Input_Files\LULC_4001x100.tif</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
   </si>
 </sst>
 </file>
@@ -2762,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3135,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="AH4" s="53">
-        <v>-5166642.6857102197</v>
+        <v>-3898379.594</v>
       </c>
       <c r="AI4" s="52">
-        <v>-2705627.9980341499</v>
+        <v>-925319.70499999996</v>
       </c>
       <c r="AJ4" s="65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK4" s="10"/>
       <c r="AL4" s="9" t="s">
@@ -3222,7 +3216,7 @@
         <v>56</v>
       </c>
       <c r="AA5" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="9" t="s">
@@ -3239,13 +3233,13 @@
         <v>2</v>
       </c>
       <c r="AH5" s="53">
-        <v>-5166260.8192833299</v>
+        <v>-3895656.5090000001</v>
       </c>
       <c r="AI5" s="52">
-        <v>-2705168.6514626802</v>
+        <v>-925319.70499999996</v>
       </c>
       <c r="AJ5" s="65" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK5" s="10"/>
       <c r="AL5" s="9" t="s">
@@ -3326,7 +3320,7 @@
         <v>71</v>
       </c>
       <c r="AA6" s="50" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="9" t="s">
@@ -3339,18 +3333,10 @@
         <v>73</v>
       </c>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="52">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="53">
-        <v>-5166819.7831835505</v>
-      </c>
-      <c r="AI6" s="52">
-        <v>-2704631.8247466199</v>
-      </c>
-      <c r="AJ6" s="65" t="s">
-        <v>161</v>
-      </c>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="65"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="9" t="s">
         <v>89</v>
@@ -3412,7 +3398,7 @@
         <v>81</v>
       </c>
       <c r="AA7" s="50" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="9" t="s">
@@ -3425,18 +3411,10 @@
         <v>67</v>
       </c>
       <c r="AF7" s="9"/>
-      <c r="AG7" s="52">
-        <v>4</v>
-      </c>
-      <c r="AH7" s="53">
-        <v>-5167655.4618858704</v>
-      </c>
-      <c r="AI7" s="52">
-        <v>-2703873.6261888901</v>
-      </c>
-      <c r="AJ7" s="65" t="s">
-        <v>162</v>
-      </c>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="65"/>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9" t="s">
         <v>96</v>
@@ -18152,8 +18130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553BA00A-7A89-4375-BB3D-26E7CA6FB175}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -18547,7 +18525,7 @@
         <v>128</v>
       </c>
       <c r="R10" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
@@ -18653,7 +18631,7 @@
     <row r="14" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29"/>
       <c r="B14" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" s="36">
         <v>1</v>
@@ -18800,7 +18778,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F19" s="32">
         <v>1</v>
